--- a/biology/Zoologie/Eleutherodactylus_karlschmidti/Eleutherodactylus_karlschmidti.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_karlschmidti/Eleutherodactylus_karlschmidti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus karlschmidti est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus karlschmidti est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Porto Rico[1]. Elle se rencontre de 45 à 630 m d'altitude dans les ruisseaux de montagne et des chutes d’eau de la forêt nationale d'El Yunque et de la forêt d'El Verde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Porto Rico. Elle se rencontre de 45 à 630 m d'altitude dans les ruisseaux de montagne et des chutes d’eau de la forêt nationale d'El Yunque et de la forêt d'El Verde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 80 mm[3].  C’est l’une des plus grandes espèces de coqui et la seconde plus grande grenouille (après le crapaud buffle) de Porto Rico.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 80 mm.  C’est l’une des plus grandes espèces de coqui et la seconde plus grande grenouille (après le crapaud buffle) de Porto Rico.
 On sait peu de choses sur son écologie et son cycle de vie. Elle est nocturne et son cri et très bruyant. Les œufs sont pondus dans des fentes ou sur des rochers. C’est une des quelques espèces de coqui à avoir des membranes entre les orteils. C’est la seule espèce à être totalement palmée.
 On l'a observé pour la dernière fois en 1974 et elle a peut-être disparu à cause d'une maladie fongique : la chytridiomycose.
 </t>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Patterson Schmidt.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grant, 1931 : A new frog from Porto Rico. Copeia, vol. 1931, p. 55-56.</t>
         </is>
